--- a/stochastic_optimizer/Forecasts_60M.xlsx
+++ b/stochastic_optimizer/Forecasts_60M.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guemruekcue\internship\optimization-agent\AllModels\Commercial_EV\AllApproaches\Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gajjar\Documents\opt\optimization-framework\stochastic_optimizer\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -113,7 +113,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -129,7 +129,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -417,9 +417,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -489,7 +491,7 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>0.39367000000000002</v>
       </c>
       <c r="C7">
         <v>33.67</v>
@@ -500,7 +502,7 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0</v>
+        <v>4.7536100000000001</v>
       </c>
       <c r="C8">
         <v>40.450000000000003</v>
@@ -511,7 +513,7 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>15.1473</v>
       </c>
       <c r="C9">
         <v>47.16</v>
@@ -522,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.22649702399999991</v>
+        <v>15.867000000000001</v>
       </c>
       <c r="C10">
         <v>47.68</v>
@@ -533,7 +535,7 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.60334712319999984</v>
+        <v>31.79674</v>
       </c>
       <c r="C11">
         <v>46.23</v>
@@ -544,7 +546,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.96479598930000021</v>
+        <v>38.73189</v>
       </c>
       <c r="C12">
         <v>43.01</v>
@@ -555,7 +557,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.2659723277899999</v>
+        <v>33.299140000000001</v>
       </c>
       <c r="C13">
         <v>39.86</v>
@@ -566,7 +568,7 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.4133262080000011</v>
+        <v>14.634639999999999</v>
       </c>
       <c r="C14">
         <v>37.64</v>
@@ -577,7 +579,7 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.485485568000001</v>
+        <v>24.09385</v>
       </c>
       <c r="C15">
         <v>37.14</v>
@@ -588,7 +590,7 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.4840356069999989</v>
+        <v>10.87046</v>
       </c>
       <c r="C16">
         <v>39.11</v>
@@ -599,7 +601,7 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.41545815672</v>
+        <v>20.061979999999998</v>
       </c>
       <c r="C17">
         <v>41.91</v>
@@ -610,7 +612,7 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.198723968000001</v>
+        <v>10.995050000000001</v>
       </c>
       <c r="C18">
         <v>44.11</v>
@@ -621,7 +623,7 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.80725468167999836</v>
+        <v>2.2880600000000002</v>
       </c>
       <c r="C19">
         <v>48.02</v>
@@ -632,7 +634,7 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2925237658</v>
+        <v>0</v>
       </c>
       <c r="C20">
         <v>51.65</v>
@@ -706,7 +708,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -993,7 +995,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -1280,7 +1282,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -1567,7 +1569,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -1854,7 +1856,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -2141,7 +2143,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -2428,7 +2430,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -2715,7 +2717,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -3002,7 +3004,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -3289,7 +3291,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -3576,7 +3578,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -3863,7 +3865,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -4150,7 +4152,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -4437,7 +4439,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -4724,7 +4726,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -5009,7 +5011,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -5296,7 +5298,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -5583,7 +5585,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -5870,7 +5872,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -6157,7 +6159,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -6444,7 +6446,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -6731,7 +6733,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
@@ -7018,7 +7020,7 @@
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
